--- a/scripts/test.xlsx
+++ b/scripts/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16780" tabRatio="868" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16780" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="Player Tiers &amp; Instructions" sheetId="23" r:id="rId1"/>
@@ -489,9 +489,6 @@
     <t>Mike Lorenzo-Vera</t>
   </si>
   <si>
-    <t>Miyazato Yusaku</t>
-  </si>
-  <si>
     <t>Paul Lawrie</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Yusaku Miyazato</t>
   </si>
 </sst>
 </file>
@@ -983,19 +983,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1005,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1302,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T98"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1328,7 +1328,7 @@
   <sheetData>
     <row r="2" spans="2:20" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -1345,12 +1345,12 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B3" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B4" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
@@ -1450,23 +1450,23 @@
       <c r="M11" s="20"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="I13" s="42" t="s">
+      <c r="G13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="L13" s="42" t="s">
+      <c r="J13" s="43"/>
+      <c r="L13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="43"/>
     </row>
     <row r="14" spans="2:20" ht="13" x14ac:dyDescent="0.15">
       <c r="C14" s="15" t="s">
@@ -2780,7 +2780,7 @@
         <v>115</v>
       </c>
       <c r="L56" s="26" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="M56" s="5">
         <v>50000</v>
@@ -2792,7 +2792,7 @@
         <v>116</v>
       </c>
       <c r="L57" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M57" s="5">
         <v>50000</v>
@@ -2804,7 +2804,7 @@
         <v>117</v>
       </c>
       <c r="L58" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M58" s="5">
         <v>50000</v>
@@ -2816,7 +2816,7 @@
         <v>118</v>
       </c>
       <c r="L59" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M59" s="5">
         <v>50000</v>
@@ -2828,7 +2828,7 @@
         <v>119</v>
       </c>
       <c r="L60" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M60" s="5">
         <v>50000</v>
@@ -2840,7 +2840,7 @@
         <v>120</v>
       </c>
       <c r="L61" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M61" s="5">
         <v>50000</v>
@@ -2852,7 +2852,7 @@
         <v>121</v>
       </c>
       <c r="L62" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M62" s="5">
         <v>50000</v>
@@ -2864,7 +2864,7 @@
         <v>122</v>
       </c>
       <c r="L63" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M63" s="5">
         <v>50000</v>
@@ -2876,7 +2876,7 @@
         <v>123</v>
       </c>
       <c r="L64" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M64" s="5">
         <v>50000</v>
@@ -2900,7 +2900,7 @@
         <v>125</v>
       </c>
       <c r="L66" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M66" s="5">
         <v>75000</v>
@@ -2912,7 +2912,7 @@
         <v>126</v>
       </c>
       <c r="L67" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M67" s="5">
         <v>75000</v>
@@ -2924,7 +2924,7 @@
         <v>127</v>
       </c>
       <c r="L68" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M68" s="5">
         <v>75000</v>
@@ -2936,7 +2936,7 @@
         <v>128</v>
       </c>
       <c r="L69" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M69" s="5">
         <v>75000</v>
@@ -2948,7 +2948,7 @@
         <v>129</v>
       </c>
       <c r="L70" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M70" s="5">
         <v>75000</v>
@@ -2960,7 +2960,7 @@
         <v>130</v>
       </c>
       <c r="L71" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M71" s="5">
         <v>100000</v>
@@ -2972,7 +2972,7 @@
         <v>131</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M72" s="5">
         <v>100000</v>
@@ -2984,7 +2984,7 @@
         <v>132</v>
       </c>
       <c r="L73" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M73" s="5">
         <v>100000</v>
@@ -3008,7 +3008,7 @@
         <v>134</v>
       </c>
       <c r="L75" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M75" s="5">
         <v>100000</v>
@@ -3020,7 +3020,7 @@
         <v>135</v>
       </c>
       <c r="L76" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M76" s="5">
         <v>100000</v>
@@ -3032,7 +3032,7 @@
         <v>136</v>
       </c>
       <c r="L77" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M77" s="5">
         <v>100000</v>
@@ -3044,7 +3044,7 @@
         <v>137</v>
       </c>
       <c r="L78" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M78" s="5">
         <v>100000</v>
@@ -3056,7 +3056,7 @@
         <v>138</v>
       </c>
       <c r="L79" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M79" s="5">
         <v>100000</v>
@@ -3068,7 +3068,7 @@
         <v>139</v>
       </c>
       <c r="L80" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M80" s="5">
         <v>100000</v>
@@ -3080,7 +3080,7 @@
         <v>140</v>
       </c>
       <c r="L81" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M81" s="5">
         <v>100000</v>
@@ -3092,7 +3092,7 @@
         <v>141</v>
       </c>
       <c r="L82" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M82" s="5">
         <v>100000</v>
@@ -3104,7 +3104,7 @@
         <v>142</v>
       </c>
       <c r="L83" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M83" s="5">
         <v>100000</v>
@@ -3116,7 +3116,7 @@
         <v>143</v>
       </c>
       <c r="L84" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M84" s="5">
         <v>100000</v>
@@ -3128,7 +3128,7 @@
         <v>144</v>
       </c>
       <c r="L85" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M85" s="5">
         <v>100000</v>
@@ -3140,7 +3140,7 @@
         <v>145</v>
       </c>
       <c r="L86" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M86" s="5">
         <v>100000</v>
@@ -3152,7 +3152,7 @@
         <v>146</v>
       </c>
       <c r="L87" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M87" s="5">
         <v>100000</v>
@@ -3164,7 +3164,7 @@
         <v>147</v>
       </c>
       <c r="L88" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M88" s="5">
         <v>100000</v>
@@ -3176,7 +3176,7 @@
         <v>148</v>
       </c>
       <c r="L89" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M89" s="5">
         <v>100000</v>
@@ -3188,7 +3188,7 @@
         <v>149</v>
       </c>
       <c r="L90" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M90" s="5">
         <v>150000</v>
@@ -3200,7 +3200,7 @@
         <v>150</v>
       </c>
       <c r="L91" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M91" s="5">
         <v>150000</v>
@@ -3212,7 +3212,7 @@
         <v>151</v>
       </c>
       <c r="L92" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M92" s="5">
         <v>150000</v>
@@ -3224,7 +3224,7 @@
         <v>152</v>
       </c>
       <c r="L93" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M93" s="5">
         <v>150000</v>
@@ -3236,7 +3236,7 @@
         <v>153</v>
       </c>
       <c r="L94" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M94" s="5">
         <v>200000</v>
@@ -3248,7 +3248,7 @@
         <v>154</v>
       </c>
       <c r="L95" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M95" s="5">
         <v>200000</v>
@@ -3260,7 +3260,7 @@
         <v>155</v>
       </c>
       <c r="L96" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M96" s="5">
         <v>200000</v>
@@ -3271,7 +3271,7 @@
         <v>70</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.15">
@@ -3328,50 +3328,50 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="43" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="50" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="50" t="s">
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="48"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -3410,7 +3410,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3425,30 +3425,30 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="50" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="50" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="48"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="49"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3502,30 +3502,30 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="50" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="48"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3579,30 +3579,30 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="50" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="50" t="s">
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="48"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
@@ -3641,7 +3641,7 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="49"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
@@ -3778,6 +3778,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="G14:J14"/>
@@ -3790,13 +3797,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="K11:N11"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:N5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3808,7 +3808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3820,38 +3820,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>198</v>
       </c>
       <c r="B2">
         <v>2710</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
+      <c r="A3" s="42"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="B5" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="C5" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3899,21 +3899,21 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="C12" s="42" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
